--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -140,15 +140,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -140,15 +140,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar as técnicas experimentais de preparação materialográfica e de caracterização de materiais.</t>
+    <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,62 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Difração de raios X. Materialografia. Microscopia óptica. Microscopia eletrônica. Análise térmica.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>A microestrutura dos materiais. Sistemas e reticulados cristalinos, grupos espaciais e simetria, tipos mais comuns de estruturas cristalinas. Projeção estereográfica. Direção do feixe difratado e a lei de Bragg. Intensidade do feixe difratado. Métodos de difração de raios X. 
-Preparação materialográfica de amostras: corte, embutimento, lixamento e polimento. Técnicas de ataque químico para revelação de fases. Fundamentos de materialografia quantitativa. Microscopia óptica. Técnicas de microscopia eletrônica: varredura e transmissão. Análise química de microrregiões: espectroscopia de energia dispersiva. Técnicas de análise térmica: análise térmica diferencial, calorimetria exploratória diferencial e análise termogravimétrica.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>PADILHA, A.F. Técnicas de Análise Microestrutural, Ed. Hemus, São Paulo, 1985.
-MURPHY, D. B. Fundamentals of Light Microscopy and Electronic Imaging, Wiley-Liss, 2001.
-WU, Q.; MERCHANT, F.; CASTLEMAN, K. Microscope Image Processing, Academic Press, 2008.
-CULLITY, B. D.; STOCK, S. R. Elements of X-Ray Diffraction, Prentice Hall, 2001.
-YACOBI, B. G.; HOLT, D. B.; KAZMERSKI, L. L. Microanalysis of Solids. Plenum Press, New York, 1994.
-HATAKEYAMA, T.; ZHENHAI, L. Handbook of Thermal Analysis, Wiley, 1999.
-HAINES, P. J. Principles of Thermal Analysis and Calorimetry, Royal Society of Chemistry, 2002.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -505,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,56 +611,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -694,7 +681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -705,55 +692,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -121,15 +121,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -121,15 +121,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>To present the experimental techniques of materialographic preparation and characterization of materials.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,10 +88,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>X-ray diffraction. Materialography. Optical microscopy. Electron microscopy. Thermal analysis.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>The microstructure of materials. Crystal lattices and systems, space groups and symmetry, most common types of crystal structures. Stereographic projection. Direction of the diffracted beam and Bragg's law. Intensity of the diffracted beam. Methods of X-ray diffraction.Materialographic sample preparation: cutting, embedding, sanding and polishing. Chemical etching techniques to reveal phases. Fundamentals of quantitative materialography. Optical microscopy. Electron microscopy techniques: scanning and transmission. Chemical analysis of microregions: energy dispersive spectroscopy. Thermal analysis techniques: differential thermal analysis, differential scanning calorimetry and thermogravimetric analysis.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -605,15 +614,21 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -624,12 +639,18 @@
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -640,85 +661,91 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -130,15 +130,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -130,15 +130,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3246 -  Técnicas de Caracterização de Materiais  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3229.xlsx
+++ b/docs/assets/disciplinas/LOM3229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar as técnicas experimentais de preparação materialográfica e de caracterização de materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present the experimental techniques of materialographic preparation and characterization of materials.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present the experimental techniques of materialographic preparation and characterization of materials.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Difração de raios X. Materialografia. Microscopia óptica. Microscopia eletrônica. Análise térmica.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>A microestrutura dos materiais. Sistemas e reticulados cristalinos, grupos espaciais e simetria, tipos mais comuns de estruturas cristalinas. Projeção estereográfica. Direção do feixe difratado e a lei de Bragg. Intensidade do feixe difratado. Métodos de difração de raios X. Preparação materialográfica de amostras: corte, embutimento, lixamento e polimento. Técnicas de ataque químico para revelação de fases. Fundamentos de materialografia quantitativa. Microscopia óptica. Técnicas de microscopia eletrônica: varredura e transmissão. Análise química de microrregiões: espectroscopia de energia dispersiva. Técnicas de análise térmica: análise térmica diferencial, calorimetria exploratória diferencial e análise termogravimétrica.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,31 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1643715 - Paulo Atsushi Suzuki</t>
+    <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
+    <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
+    <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>PADILHA, A.F. Técnicas de Análise Microestrutural, Ed. Hemus, São Paulo, 1985.
+MURPHY, D. B. Fundamentals of Light Microscopy and Electronic Imaging, Wiley-Liss, 2001.
+WU, Q.; MERCHANT, F.; CASTLEMAN, K. Microscope Image Processing, Academic Press, 2008.
+CULLITY, B. D.; STOCK, S. R. Elements of X-Ray Diffraction, Prentice Hall, 2001.
+YACOBI, B. G.; HOLT, D. B.; KAZMERSKI, L. L. Microanalysis of Solids. Plenum Press, New York, 1994.
+HATAKEYAMA, T.; ZHENHAI, L. Handbook of Thermal Analysis, Wiley, 1999.
+HAINES, P. J. Principles of Thermal Analysis and Calorimetry, Royal Society of Chemistry, 2002.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -626,40 +644,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -670,30 +682,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -708,7 +720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -719,33 +731,55 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
